--- a/Improgress/4. Timelog/ECB_PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/ECB_PM_TimeLog.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Desktop\Caps\4. Timelog\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE369C9-4C2D-40FF-B04D-4622E9EFD90A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
     <sheet name="Đạt Huỳnh" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId3"/>
+    <sheet name="Quốc Nhân" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="93">
   <si>
     <t>Work in period</t>
   </si>
@@ -266,9 +261,6 @@
     <t>24/10/2019</t>
   </si>
   <si>
-    <t>Readding Customer Documments</t>
-  </si>
-  <si>
     <t>19/10/2019</t>
   </si>
   <si>
@@ -294,12 +286,36 @@
   </si>
   <si>
     <t>PM_ConfigurationManagementPlan_Ver1.0.docx</t>
+  </si>
+  <si>
+    <t>Quốc Nhân</t>
+  </si>
+  <si>
+    <t>Research Information WebGIS</t>
+  </si>
+  <si>
+    <t>Research WebGIS, Database &amp; Code</t>
+  </si>
+  <si>
+    <t>Create Member Charter</t>
+  </si>
+  <si>
+    <t>Create Team Charter</t>
+  </si>
+  <si>
+    <t>PM_TeamCharter_Ver1.0.docx</t>
+  </si>
+  <si>
+    <t>Draw the steps submitted and changed github &amp; gg drive</t>
+  </si>
+  <si>
+    <t>Reading Customer Documments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
   </numFmts>
@@ -878,22 +894,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,9 +932,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,6 +1012,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1042,7 +1058,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1090,26 +1106,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1286,7 +1282,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0955-4010-BDAE-16CE5C7D3A32}"/>
             </c:ext>
@@ -1441,7 +1437,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0955-4010-BDAE-16CE5C7D3A32}"/>
             </c:ext>
@@ -1596,7 +1592,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0955-4010-BDAE-16CE5C7D3A32}"/>
             </c:ext>
@@ -1638,7 +1634,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-0955-4010-BDAE-16CE5C7D3A32}"/>
               </c:ext>
@@ -1772,7 +1768,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0955-4010-BDAE-16CE5C7D3A32}"/>
             </c:ext>
@@ -1927,7 +1923,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0955-4010-BDAE-16CE5C7D3A32}"/>
             </c:ext>
@@ -1943,11 +1939,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="597331568"/>
-        <c:axId val="597332112"/>
+        <c:axId val="108684800"/>
+        <c:axId val="57965888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="597331568"/>
+        <c:axId val="108684800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,7 +1986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597332112"/>
+        <c:crossAx val="57965888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1998,7 +1994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597332112"/>
+        <c:axId val="57965888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +2045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597331568"/>
+        <c:crossAx val="108684800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2658,7 +2654,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F0FC85E-8946-4820-9D29-F74EA8E45E88}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F0FC85E-8946-4820-9D29-F74EA8E45E88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2690,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B8A72F-8D09-49E1-BC11-AA9F72630413}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B8A72F-8D09-49E1-BC11-AA9F72630413}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,1019 +3019,1019 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="38" width="10.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="12.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="38" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Y1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="Z1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AA1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AC1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AD1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AE1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="42" t="s">
+      <c r="AF1" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="41" t="s">
+      <c r="AG1" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="41" t="s">
+      <c r="AH1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="41" t="s">
+      <c r="AJ1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" s="41" t="s">
+      <c r="AK1" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="41" t="s">
+      <c r="AL1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="41" t="s">
+      <c r="AM1" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="38">
         <f>'Đạt Huỳnh'!C11</f>
         <v>24</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="38">
         <f>'Đạt Huỳnh'!C19</f>
         <v>22</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46">
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40">
         <f>SUM(B2:AL2)</f>
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="46">
+    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="40">
         <f t="shared" ref="AM3:AM6" si="0">SUM(B3:AL3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46">
+    <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="46">
+    <row r="5" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="46">
+    <row r="6" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="50"/>
+      <c r="AM6" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16">
+    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
         <f>SUM(B2:B6)</f>
         <v>24</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <f t="shared" ref="C7:R7" si="1">SUM(C2:C6)+B7</f>
         <v>46</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="14">
         <f t="shared" ref="S7" si="2">SUM(S2:S6)+R7</f>
         <v>46</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="14">
         <f t="shared" ref="T7" si="3">SUM(T2:T6)+S7</f>
         <v>46</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="14">
         <f t="shared" ref="U7" si="4">SUM(U2:U6)+T7</f>
         <v>46</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="14">
         <f t="shared" ref="V7" si="5">SUM(V2:V6)+U7</f>
         <v>46</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="14">
         <f t="shared" ref="W7" si="6">SUM(W2:W6)+V7</f>
         <v>46</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="14">
         <f t="shared" ref="X7" si="7">SUM(X2:X6)+W7</f>
         <v>46</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y7" s="14">
         <f t="shared" ref="Y7" si="8">SUM(Y2:Y6)+X7</f>
         <v>46</v>
       </c>
-      <c r="Z7" s="16">
+      <c r="Z7" s="14">
         <f t="shared" ref="Z7" si="9">SUM(Z2:Z6)+Y7</f>
         <v>46</v>
       </c>
-      <c r="AA7" s="16">
+      <c r="AA7" s="14">
         <f t="shared" ref="AA7" si="10">SUM(AA2:AA6)+Z7</f>
         <v>46</v>
       </c>
-      <c r="AB7" s="16">
+      <c r="AB7" s="14">
         <f t="shared" ref="AB7" si="11">SUM(AB2:AB6)+AA7</f>
         <v>46</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AC7" s="14">
         <f t="shared" ref="AC7" si="12">SUM(AC2:AC6)+AB7</f>
         <v>46</v>
       </c>
-      <c r="AD7" s="16">
+      <c r="AD7" s="14">
         <f t="shared" ref="AD7" si="13">SUM(AD2:AD6)+AC7</f>
         <v>46</v>
       </c>
-      <c r="AE7" s="16">
+      <c r="AE7" s="14">
         <f t="shared" ref="AE7" si="14">SUM(AE2:AE6)+AD7</f>
         <v>46</v>
       </c>
-      <c r="AF7" s="16">
+      <c r="AF7" s="14">
         <f t="shared" ref="AF7" si="15">SUM(AF2:AF6)+AE7</f>
         <v>46</v>
       </c>
-      <c r="AG7" s="16">
+      <c r="AG7" s="14">
         <f t="shared" ref="AG7" si="16">SUM(AG2:AG6)+AF7</f>
         <v>46</v>
       </c>
-      <c r="AH7" s="16">
+      <c r="AH7" s="14">
         <f t="shared" ref="AH7" si="17">SUM(AH2:AH6)+AG7</f>
         <v>46</v>
       </c>
-      <c r="AI7" s="16">
+      <c r="AI7" s="14">
         <f t="shared" ref="AI7" si="18">SUM(AI2:AI6)+AH7</f>
         <v>46</v>
       </c>
-      <c r="AJ7" s="16">
+      <c r="AJ7" s="14">
         <f t="shared" ref="AJ7" si="19">SUM(AJ2:AJ6)+AI7</f>
         <v>46</v>
       </c>
-      <c r="AK7" s="16">
+      <c r="AK7" s="14">
         <f t="shared" ref="AK7" si="20">SUM(AK2:AK6)+AJ7</f>
         <v>46</v>
       </c>
-      <c r="AL7" s="16">
+      <c r="AL7" s="14">
         <f t="shared" ref="AL7" si="21">SUM(AL2:AL6)+AK7</f>
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="J8" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="58" t="s">
+      <c r="K8" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="M8" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="58" t="s">
+      <c r="N8" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="58" t="s">
+      <c r="O8" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="58" t="s">
+      <c r="P8" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="58" t="s">
+      <c r="Q8" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="58" t="s">
+      <c r="R8" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="58" t="s">
+      <c r="S8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="58" t="s">
+      <c r="T8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="U8" s="58" t="s">
+      <c r="U8" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="V8" s="58" t="s">
+      <c r="V8" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="W8" s="58" t="s">
+      <c r="W8" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="X8" s="58" t="s">
+      <c r="X8" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="Y8" s="58" t="s">
+      <c r="Y8" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="Z8" s="58" t="s">
+      <c r="Z8" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="AA8" s="58" t="s">
+      <c r="AA8" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="AB8" s="58" t="s">
+      <c r="AB8" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AC8" s="58" t="s">
+      <c r="AC8" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" s="58" t="s">
+      <c r="AD8" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="AE8" s="58" t="s">
+      <c r="AE8" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AF8" s="59" t="s">
+      <c r="AF8" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="AG8" s="58" t="s">
+      <c r="AG8" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="AH8" s="58" t="s">
+      <c r="AH8" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AI8" s="58" t="s">
+      <c r="AI8" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="AJ8" s="58" t="s">
+      <c r="AJ8" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="AK8" s="58" t="s">
+      <c r="AK8" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="AL8" s="58" t="s">
+      <c r="AL8" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="AM8" s="58" t="s">
+      <c r="AM8" s="52" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="60" t="s">
+    <row r="9" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="55">
         <f>'Đạt Huỳnh'!H11</f>
         <v>24</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="56">
         <f>'Đạt Huỳnh'!H19</f>
         <v>34</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="61"/>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="61">
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="55">
         <f>SUM(B9:AL9)</f>
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="64"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="61">
+    <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="55">
         <f t="shared" ref="AM10:AM13" si="22">SUM(B10:AL10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="61">
+    <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="61"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="55">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="64"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="61">
+    <row r="12" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="55">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="69"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="61">
+    <row r="13" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="47"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="55">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B14" s="14">
         <f>SUM(B9:B13)</f>
         <v>24</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <f t="shared" ref="C14:R14" si="23">SUM(C9:C13)+B14</f>
         <v>58</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R14" s="14">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="S14" s="16">
+      <c r="S14" s="14">
         <f t="shared" ref="S14" si="24">SUM(S9:S13)+R14</f>
         <v>58</v>
       </c>
-      <c r="T14" s="16">
+      <c r="T14" s="14">
         <f t="shared" ref="T14" si="25">SUM(T9:T13)+S14</f>
         <v>58</v>
       </c>
-      <c r="U14" s="16">
+      <c r="U14" s="14">
         <f t="shared" ref="U14" si="26">SUM(U9:U13)+T14</f>
         <v>58</v>
       </c>
-      <c r="V14" s="16">
+      <c r="V14" s="14">
         <f t="shared" ref="V14" si="27">SUM(V9:V13)+U14</f>
         <v>58</v>
       </c>
-      <c r="W14" s="16">
+      <c r="W14" s="14">
         <f t="shared" ref="W14" si="28">SUM(W9:W13)+V14</f>
         <v>58</v>
       </c>
-      <c r="X14" s="16">
+      <c r="X14" s="14">
         <f t="shared" ref="X14" si="29">SUM(X9:X13)+W14</f>
         <v>58</v>
       </c>
-      <c r="Y14" s="16">
+      <c r="Y14" s="14">
         <f t="shared" ref="Y14" si="30">SUM(Y9:Y13)+X14</f>
         <v>58</v>
       </c>
-      <c r="Z14" s="16">
+      <c r="Z14" s="14">
         <f t="shared" ref="Z14" si="31">SUM(Z9:Z13)+Y14</f>
         <v>58</v>
       </c>
-      <c r="AA14" s="16">
+      <c r="AA14" s="14">
         <f t="shared" ref="AA14" si="32">SUM(AA9:AA13)+Z14</f>
         <v>58</v>
       </c>
-      <c r="AB14" s="16">
+      <c r="AB14" s="14">
         <f t="shared" ref="AB14" si="33">SUM(AB9:AB13)+AA14</f>
         <v>58</v>
       </c>
-      <c r="AC14" s="16">
+      <c r="AC14" s="14">
         <f t="shared" ref="AC14" si="34">SUM(AC9:AC13)+AB14</f>
         <v>58</v>
       </c>
-      <c r="AD14" s="16">
+      <c r="AD14" s="14">
         <f t="shared" ref="AD14" si="35">SUM(AD9:AD13)+AC14</f>
         <v>58</v>
       </c>
-      <c r="AE14" s="16">
+      <c r="AE14" s="14">
         <f t="shared" ref="AE14" si="36">SUM(AE9:AE13)+AD14</f>
         <v>58</v>
       </c>
-      <c r="AF14" s="16">
+      <c r="AF14" s="14">
         <f t="shared" ref="AF14" si="37">SUM(AF9:AF13)+AE14</f>
         <v>58</v>
       </c>
-      <c r="AG14" s="16">
+      <c r="AG14" s="14">
         <f t="shared" ref="AG14" si="38">SUM(AG9:AG13)+AF14</f>
         <v>58</v>
       </c>
-      <c r="AH14" s="16">
+      <c r="AH14" s="14">
         <f t="shared" ref="AH14" si="39">SUM(AH9:AH13)+AG14</f>
         <v>58</v>
       </c>
-      <c r="AI14" s="16">
+      <c r="AI14" s="14">
         <f t="shared" ref="AI14" si="40">SUM(AI9:AI13)+AH14</f>
         <v>58</v>
       </c>
-      <c r="AJ14" s="16">
+      <c r="AJ14" s="14">
         <f t="shared" ref="AJ14" si="41">SUM(AJ9:AJ13)+AI14</f>
         <v>58</v>
       </c>
-      <c r="AK14" s="16">
+      <c r="AK14" s="14">
         <f t="shared" ref="AK14" si="42">SUM(AK9:AK13)+AJ14</f>
         <v>58</v>
       </c>
-      <c r="AL14" s="16">
+      <c r="AL14" s="14">
         <f t="shared" ref="AL14" si="43">SUM(AL9:AL13)+AK14</f>
         <v>58</v>
       </c>
@@ -4048,96 +4044,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D8DAC8-1F69-4F85-8190-37F8A36CE28A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="16"/>
-    <col min="8" max="8" width="12.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="14"/>
+    <col min="8" max="8" width="12.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="22" t="s">
         <v>64</v>
       </c>
       <c r="F4" s="8">
@@ -4146,25 +4142,25 @@
       <c r="G4" s="8">
         <v>4</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="8">
@@ -4173,28 +4169,28 @@
       <c r="G5" s="8">
         <v>6</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="K5" s="16">
+      <c r="I5" s="19"/>
+      <c r="K5" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="D6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="9">
@@ -4203,25 +4199,25 @@
       <c r="G6" s="9">
         <v>6</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="9">
@@ -4230,23 +4226,23 @@
       <c r="G7" s="9">
         <v>4</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="30" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="9">
@@ -4255,76 +4251,76 @@
       <c r="G8" s="9">
         <v>4</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="25" t="s">
-        <v>77</v>
+      <c r="E9" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="23"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="25"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="23"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="66">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="66">
         <f>SUM(G4:G10)</f>
         <v>24</v>
       </c>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I11" s="67"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>2</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="22" t="s">
         <v>72</v>
       </c>
       <c r="F12" s="8">
@@ -4333,25 +4329,25 @@
       <c r="G12" s="8">
         <v>6</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>2</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="23" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="8">
@@ -4360,25 +4356,25 @@
       <c r="G13" s="8">
         <v>6</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I13" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>2</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="21" t="s">
         <v>74</v>
       </c>
       <c r="F14" s="9">
@@ -4387,25 +4383,25 @@
       <c r="G14" s="9">
         <v>4</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>2</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>75</v>
       </c>
       <c r="F15" s="9">
@@ -4414,90 +4410,90 @@
       <c r="G15" s="9">
         <v>6</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>2</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>78</v>
+        <v>92</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9">
         <v>6</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>2</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="25" t="s">
         <v>83</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9">
         <v>6</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="23"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="66">
         <f>SUM(F12:F18)</f>
         <v>22</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="66">
         <f>SUM(G12:G18)</f>
         <v>34</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4509,16 +4505,16 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18" xr:uid="{167B091C-9D1F-4EE8-ADCD-B83A700F7251}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17" xr:uid="{2DEC006E-BC16-46EC-A793-0ACA5ADE4A19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18" xr:uid="{1468305F-0C18-42BF-AF3A-C02515830821}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{96EB1096-CFBC-4300-8CA3-B9AA4FB63F4E}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
@@ -4529,391 +4525,391 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E6E6FC-AA3E-4AB8-932A-DA22E440EB21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F28:F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="22" t="s">
         <v>64</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="21" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="23" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="30" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="25"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="25"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="23"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="66">
         <f>SUM(F4:F10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="66">
         <f>SUM(G4:G10)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I11" s="67"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="22" t="s">
         <v>71</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="23" t="s">
         <v>72</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="21" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="20" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="25"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="23"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="66">
         <f>SUM(F12:F18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="66">
         <f>SUM(G12:G18)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4924,20 +4920,512 @@
     <mergeCell ref="H19:I19"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{F949ADB3-D0DF-4D38-AB57-F81408690127}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18" xr:uid="{341E1EE5-D8E1-4D3E-B5E1-F16F0CE433C7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17" xr:uid="{78221911-F4E8-4087-A03B-D5AE7C747B66}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18" xr:uid="{09CE0D58-C7F9-4772-BD74-7E870A32281E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>4</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="9">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9">
+        <v>4</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="66">
+        <f>SUM(F4:F10)</f>
+        <v>26</v>
+      </c>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="66">
+        <f>SUM(G4:G10)</f>
+        <v>26</v>
+      </c>
+      <c r="I11" s="67"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="8">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8">
+        <v>6</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>2</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="9">
+        <v>4</v>
+      </c>
+      <c r="G14" s="9">
+        <v>4</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>2</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="9">
+        <v>5</v>
+      </c>
+      <c r="G15" s="9">
+        <v>5</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>2</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="9">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>2</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="9">
+        <v>5</v>
+      </c>
+      <c r="G17" s="9">
+        <v>5</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="66">
+        <f>SUM(F12:F18)</f>
+        <v>30</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="66">
+        <f>SUM(G12:G18)</f>
+        <v>30</v>
+      </c>
+      <c r="I19" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18">
+      <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17">
+      <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18">
+      <formula1>"Done,Inprogress "</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>B4</formula1>
+      <formula2>B10</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>